--- a/localfile/N1_89_Traffic Count and Revenue.xlsx
+++ b/localfile/N1_89_Traffic Count and Revenue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\NYSThruway\localfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FE89E7-3FFD-4129-A3D7-5EA931809B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD961252-2D85-4FFF-840E-991A253ED9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{C1DDA0D8-EFDF-499B-84A9-CEFA65739E8A}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{C1DDA0D8-EFDF-499B-84A9-CEFA65739E8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue LastYear" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="43">
   <si>
     <t>NEW YORK STATE THRUWAY AUTHORITY</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
   </si>
 </sst>
 </file>
@@ -510,38 +519,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139F480C-6D5C-4B64-AA66-9060CDF00384}">
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:Z78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43709</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="W5" s="2">
         <v>44090</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="2">
+        <v>44098</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="W6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -549,7 +570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -557,7 +578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -565,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -573,7 +594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -581,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -589,7 +610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -597,7 +618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -605,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -613,7 +634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -621,7 +642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -631,8 +652,14 @@
       <c r="W17">
         <v>6802</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17">
+        <v>6453</v>
+      </c>
+      <c r="Z17">
+        <v>7104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -642,8 +669,14 @@
       <c r="W18">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18">
+        <v>46.5</v>
+      </c>
+      <c r="Z18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -653,8 +686,14 @@
       <c r="W19">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19">
+        <v>57.75</v>
+      </c>
+      <c r="Z19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -664,8 +703,14 @@
       <c r="W20">
         <v>238</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20">
+        <v>248</v>
+      </c>
+      <c r="Z20">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -675,8 +720,14 @@
       <c r="W21">
         <v>74.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21">
+        <v>78.75</v>
+      </c>
+      <c r="Z21">
+        <v>65.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -686,8 +737,14 @@
       <c r="W22">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22">
+        <v>41.25</v>
+      </c>
+      <c r="Z22">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -697,8 +754,14 @@
       <c r="W23">
         <v>535.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23">
+        <v>539.75</v>
+      </c>
+      <c r="Z23">
+        <v>552.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -706,7 +769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -716,8 +779,14 @@
       <c r="W25">
         <v>67.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25">
+        <v>13.5</v>
+      </c>
+      <c r="Z25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -725,7 +794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -735,8 +804,14 @@
       <c r="W27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27">
+        <v>15</v>
+      </c>
+      <c r="Z27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -744,7 +819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -754,8 +829,14 @@
       <c r="W29">
         <v>7917.25</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29">
+        <v>7493.5</v>
+      </c>
+      <c r="Z29">
+        <v>8143.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -765,8 +846,14 @@
       <c r="W30">
         <v>2386.44</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30">
+        <v>2486.12</v>
+      </c>
+      <c r="Z30">
+        <v>2485.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -774,7 +861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -784,8 +871,14 @@
       <c r="W32">
         <v>328.14</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X32">
+        <v>332.28</v>
+      </c>
+      <c r="Z32">
+        <v>348.57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -795,16 +888,28 @@
       <c r="W33">
         <v>6.02</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X33">
+        <v>3.44</v>
+      </c>
+      <c r="Z33">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -812,7 +917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -820,7 +925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -830,8 +935,14 @@
       <c r="W37">
         <v>8107.55</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X37">
+        <v>7653.15</v>
+      </c>
+      <c r="Z37">
+        <v>8554.7000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -841,8 +952,14 @@
       <c r="W38">
         <v>10.01</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X38">
+        <v>4.29</v>
+      </c>
+      <c r="Z38">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -852,8 +969,14 @@
       <c r="W39">
         <v>20.010000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X39">
+        <v>15.03</v>
+      </c>
+      <c r="Z39">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -864,7 +987,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -872,7 +995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -880,7 +1003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -890,8 +1013,14 @@
       <c r="W43">
         <v>351</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X43">
+        <v>368.8</v>
+      </c>
+      <c r="Z43">
+        <v>343.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -901,8 +1030,14 @@
       <c r="W44">
         <v>282.98</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X44">
+        <v>310.91000000000003</v>
+      </c>
+      <c r="Z44">
+        <v>286.93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -912,8 +1047,14 @@
       <c r="W45">
         <v>143.97</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X45">
+        <v>139.03</v>
+      </c>
+      <c r="Z45">
+        <v>71.31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -923,8 +1064,14 @@
       <c r="W46">
         <v>1408.46</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X46">
+        <v>1584.02</v>
+      </c>
+      <c r="Z46">
+        <v>1561.83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -934,8 +1081,14 @@
       <c r="W47">
         <v>209.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47">
+        <v>182.39</v>
+      </c>
+      <c r="Z47">
+        <v>170.43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -945,8 +1098,14 @@
       <c r="W48">
         <v>131.26</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48">
+        <v>190.96</v>
+      </c>
+      <c r="Z48">
+        <v>165.72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -956,8 +1115,14 @@
       <c r="W49">
         <v>89.7</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X49">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="Z49">
+        <v>86.71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -967,8 +1132,14 @@
       <c r="W50">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X50">
+        <v>33.25</v>
+      </c>
+      <c r="Z50">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -978,8 +1149,14 @@
       <c r="W51">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X51">
+        <v>26.91</v>
+      </c>
+      <c r="Z51">
+        <v>26.91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -987,7 +1164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -997,8 +1174,14 @@
       <c r="W53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -1006,7 +1189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -1014,7 +1197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1022,7 +1205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1032,8 +1215,14 @@
       <c r="W57">
         <v>13534.19</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X57">
+        <v>13403.34</v>
+      </c>
+      <c r="Z57">
+        <v>14147.06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1043,24 +1232,42 @@
       <c r="W58">
         <v>263.14999999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X58">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="Z58">
+        <v>261.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>33</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X59">
+        <v>1.43</v>
+      </c>
+      <c r="Z59">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>33</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X60">
+        <v>3.32</v>
+      </c>
+      <c r="Z60">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -1070,8 +1277,14 @@
       <c r="W61">
         <v>334.4</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X61">
+        <v>357.2</v>
+      </c>
+      <c r="Z61">
+        <v>378.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -1081,8 +1294,14 @@
       <c r="W62">
         <v>383.06</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X62">
+        <v>340.26</v>
+      </c>
+      <c r="Z62">
+        <v>318.86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -1092,8 +1311,14 @@
       <c r="W63">
         <v>182.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X63">
+        <v>93.96</v>
+      </c>
+      <c r="Z63">
+        <v>133.11000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -1103,8 +1328,14 @@
       <c r="W64">
         <v>1595.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X64">
+        <v>1797.8</v>
+      </c>
+      <c r="Z64">
+        <v>1789.72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -1114,8 +1345,14 @@
       <c r="W65">
         <v>965.77</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X65">
+        <v>846.17</v>
+      </c>
+      <c r="Z65">
+        <v>807.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -1125,8 +1362,14 @@
       <c r="W66">
         <v>145.52000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X66">
+        <v>141.24</v>
+      </c>
+      <c r="Z66">
+        <v>171.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -1136,8 +1379,14 @@
       <c r="W67">
         <v>137.54</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X67">
+        <v>185.38</v>
+      </c>
+      <c r="Z67">
+        <v>143.52000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -1147,8 +1396,14 @@
       <c r="W68">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X68">
+        <v>23.75</v>
+      </c>
+      <c r="Z68">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -1158,8 +1413,14 @@
       <c r="W69">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X69">
+        <v>47.84</v>
+      </c>
+      <c r="Z69">
+        <v>41.86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -1169,8 +1430,14 @@
       <c r="W70">
         <v>4066.34</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X70">
+        <v>4130.95</v>
+      </c>
+      <c r="Z70">
+        <v>4073.19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -1180,8 +1447,14 @@
       <c r="W71">
         <v>25517.78</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X71">
+        <v>25027.79</v>
+      </c>
+      <c r="Z71">
+        <v>26363.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -1191,8 +1464,14 @@
       <c r="W72">
         <v>2386.44</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X72">
+        <v>2486.12</v>
+      </c>
+      <c r="Z72">
+        <v>2485.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -1200,7 +1479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -1210,8 +1489,14 @@
       <c r="W74">
         <v>328.14</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X74">
+        <v>332.28</v>
+      </c>
+      <c r="Z74">
+        <v>348.57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -1221,8 +1506,14 @@
       <c r="W75">
         <v>15332.24</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X75">
+        <v>14531.51</v>
+      </c>
+      <c r="Z75">
+        <v>16056.92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -1232,8 +1523,14 @@
       <c r="W76">
         <v>7470.96</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X76">
+        <v>7677.88</v>
+      </c>
+      <c r="Z76">
+        <v>7472.76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -1243,8 +1540,14 @@
       <c r="W77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -1253,6 +1556,12 @@
       </c>
       <c r="W78">
         <v>25517.78</v>
+      </c>
+      <c r="X78">
+        <v>25027.79</v>
+      </c>
+      <c r="Z78">
+        <v>26363.5</v>
       </c>
     </row>
   </sheetData>
@@ -1262,38 +1571,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC700390-BDBB-4E43-8765-583E098393B8}">
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:Z78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43709</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="W5" s="2">
         <v>44090</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="2">
+        <v>44098</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="W6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1301,7 +1622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1309,7 +1630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1317,7 +1638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1325,7 +1646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1333,7 +1654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1341,7 +1662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1349,7 +1670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1357,7 +1678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1365,7 +1686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1373,7 +1694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1383,8 +1704,14 @@
       <c r="W17">
         <v>6802</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17">
+        <v>6453</v>
+      </c>
+      <c r="Z17">
+        <v>7104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1394,8 +1721,14 @@
       <c r="W18">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18">
+        <v>31</v>
+      </c>
+      <c r="Z18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1405,8 +1738,14 @@
       <c r="W19">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19">
+        <v>33</v>
+      </c>
+      <c r="Z19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1416,8 +1755,14 @@
       <c r="W20">
         <v>119</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20">
+        <v>124</v>
+      </c>
+      <c r="Z20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1427,8 +1772,14 @@
       <c r="W21">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21">
+        <v>35</v>
+      </c>
+      <c r="Z21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1438,8 +1789,14 @@
       <c r="W22">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22">
+        <v>15</v>
+      </c>
+      <c r="Z22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1449,8 +1806,14 @@
       <c r="W23">
         <v>126</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23">
+        <v>127</v>
+      </c>
+      <c r="Z23">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1458,7 +1821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1468,8 +1831,14 @@
       <c r="W25">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1477,7 +1846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1487,8 +1856,14 @@
       <c r="W27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="Z27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1496,7 +1871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1506,8 +1881,14 @@
       <c r="W29">
         <v>7198</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29">
+        <v>6824</v>
+      </c>
+      <c r="Z29">
+        <v>7469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1517,8 +1898,14 @@
       <c r="W30">
         <v>8523</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30">
+        <v>8879</v>
+      </c>
+      <c r="Z30">
+        <v>8875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1526,7 +1913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1536,8 +1923,14 @@
       <c r="W32">
         <v>3646</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X32">
+        <v>3692</v>
+      </c>
+      <c r="Z32">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1547,16 +1940,28 @@
       <c r="W33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X33">
+        <v>4</v>
+      </c>
+      <c r="Z33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X34">
+        <v>2</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1564,7 +1969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1572,7 +1977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1582,8 +1987,14 @@
       <c r="W37">
         <v>8484</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X37">
+        <v>8014</v>
+      </c>
+      <c r="Z37">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1593,8 +2004,14 @@
       <c r="W38">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X38">
+        <v>3</v>
+      </c>
+      <c r="Z38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1604,8 +2021,14 @@
       <c r="W39">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X39">
+        <v>9</v>
+      </c>
+      <c r="Z39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -1616,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -1624,7 +2047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1632,7 +2055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1642,8 +2065,14 @@
       <c r="W43">
         <v>184</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X43">
+        <v>193</v>
+      </c>
+      <c r="Z43">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1653,8 +2082,14 @@
       <c r="W44">
         <v>131</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X44">
+        <v>144</v>
+      </c>
+      <c r="Z44">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1664,8 +2099,14 @@
       <c r="W45">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X45">
+        <v>53</v>
+      </c>
+      <c r="Z45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1675,8 +2116,14 @@
       <c r="W46">
         <v>340</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X46">
+        <v>382</v>
+      </c>
+      <c r="Z46">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1686,8 +2133,14 @@
       <c r="W47">
         <v>70</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47">
+        <v>61</v>
+      </c>
+      <c r="Z47">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1697,8 +2150,14 @@
       <c r="W48">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48">
+        <v>44</v>
+      </c>
+      <c r="Z48">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1708,8 +2167,14 @@
       <c r="W49">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X49">
+        <v>24</v>
+      </c>
+      <c r="Z49">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1719,8 +2184,14 @@
       <c r="W50">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X50">
+        <v>7</v>
+      </c>
+      <c r="Z50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1730,8 +2201,14 @@
       <c r="W51">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X51">
+        <v>9</v>
+      </c>
+      <c r="Z51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1739,7 +2216,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -1749,8 +2226,14 @@
       <c r="W53">
         <v>96</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X53">
+        <v>76</v>
+      </c>
+      <c r="Z53">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -1758,7 +2241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -1766,7 +2249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1774,7 +2257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1784,8 +2267,14 @@
       <c r="W57">
         <v>21632</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X57">
+        <v>21596</v>
+      </c>
+      <c r="Z57">
+        <v>22661</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1795,24 +2284,42 @@
       <c r="W58">
         <v>277</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X58">
+        <v>308</v>
+      </c>
+      <c r="Z58">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>33</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>33</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X60">
+        <v>2</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -1822,8 +2329,14 @@
       <c r="W61">
         <v>176</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X61">
+        <v>188</v>
+      </c>
+      <c r="Z61">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -1833,8 +2346,14 @@
       <c r="W62">
         <v>179</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X62">
+        <v>159</v>
+      </c>
+      <c r="Z62">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -1844,8 +2363,14 @@
       <c r="W63">
         <v>70</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X63">
+        <v>36</v>
+      </c>
+      <c r="Z63">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -1855,8 +2380,14 @@
       <c r="W64">
         <v>395</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X64">
+        <v>445</v>
+      </c>
+      <c r="Z64">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -1866,8 +2397,14 @@
       <c r="W65">
         <v>323</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X65">
+        <v>283</v>
+      </c>
+      <c r="Z65">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -1877,8 +2414,14 @@
       <c r="W66">
         <v>34</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X66">
+        <v>33</v>
+      </c>
+      <c r="Z66">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -1888,8 +2431,14 @@
       <c r="W67">
         <v>46</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X67">
+        <v>62</v>
+      </c>
+      <c r="Z67">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -1899,8 +2448,14 @@
       <c r="W68">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X68">
+        <v>5</v>
+      </c>
+      <c r="Z68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -1910,8 +2465,14 @@
       <c r="W69">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X69">
+        <v>16</v>
+      </c>
+      <c r="Z69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -1921,8 +2482,14 @@
       <c r="W70">
         <v>1516</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X70">
+        <v>1538</v>
+      </c>
+      <c r="Z70">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -1932,8 +2499,14 @@
       <c r="W71">
         <v>30346</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X71">
+        <v>29958</v>
+      </c>
+      <c r="Z71">
+        <v>31627</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -1943,8 +2516,14 @@
       <c r="W72">
         <v>8523</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X72">
+        <v>8879</v>
+      </c>
+      <c r="Z72">
+        <v>8875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -1952,7 +2531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -1962,8 +2541,14 @@
       <c r="W74">
         <v>3646</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X74">
+        <v>3692</v>
+      </c>
+      <c r="Z74">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -1973,8 +2558,14 @@
       <c r="W75">
         <v>15665</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X75">
+        <v>14860</v>
+      </c>
+      <c r="Z75">
+        <v>16427</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -1984,8 +2575,14 @@
       <c r="W76">
         <v>2416</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X76">
+        <v>2451</v>
+      </c>
+      <c r="Z76">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -1995,8 +2592,14 @@
       <c r="W77">
         <v>96</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X77">
+        <v>76</v>
+      </c>
+      <c r="Z77">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -2005,6 +2608,12 @@
       </c>
       <c r="W78">
         <v>30346</v>
+      </c>
+      <c r="X78">
+        <v>29958</v>
+      </c>
+      <c r="Z78">
+        <v>31627</v>
       </c>
     </row>
   </sheetData>
@@ -2014,44 +2623,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFA479B-8FE6-4187-B8BA-77D333A43605}">
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:Z78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44075</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="V5" s="2">
         <v>44094</v>
       </c>
       <c r="W5" s="2">
         <v>44095</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="2">
+        <v>44096</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>44097</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="V6" t="s">
         <v>38</v>
       </c>
       <c r="W6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2059,7 +2686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2067,7 +2694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2075,7 +2702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2083,7 +2710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2091,7 +2718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2099,7 +2726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2107,7 +2734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2115,7 +2742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2123,7 +2750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2131,7 +2758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2144,8 +2771,17 @@
       <c r="W17">
         <v>5256</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17">
+        <v>5264</v>
+      </c>
+      <c r="Y17">
+        <v>5551</v>
+      </c>
+      <c r="Z17">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2158,8 +2794,17 @@
       <c r="W18">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18">
+        <v>79.5</v>
+      </c>
+      <c r="Y18">
+        <v>108</v>
+      </c>
+      <c r="Z18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2172,8 +2817,17 @@
       <c r="W19">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19">
+        <v>3.5</v>
+      </c>
+      <c r="Y19">
+        <v>8.75</v>
+      </c>
+      <c r="Z19">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2186,8 +2840,17 @@
       <c r="W20">
         <v>226</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20">
+        <v>238</v>
+      </c>
+      <c r="Y20">
+        <v>200</v>
+      </c>
+      <c r="Z20">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2200,8 +2863,17 @@
       <c r="W21">
         <v>74.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21">
+        <v>99</v>
+      </c>
+      <c r="Y21">
+        <v>63</v>
+      </c>
+      <c r="Z21">
+        <v>65.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2214,8 +2886,17 @@
       <c r="W22">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22">
+        <v>22</v>
+      </c>
+      <c r="Y22">
+        <v>27.5</v>
+      </c>
+      <c r="Z22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2228,8 +2909,17 @@
       <c r="W23">
         <v>442</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23">
+        <v>488.75</v>
+      </c>
+      <c r="Y23">
+        <v>408</v>
+      </c>
+      <c r="Z23">
+        <v>463.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2237,7 +2927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2247,8 +2937,17 @@
       <c r="W25">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25">
+        <v>40.5</v>
+      </c>
+      <c r="Y25">
+        <v>76.5</v>
+      </c>
+      <c r="Z25">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2256,7 +2955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2266,8 +2965,17 @@
       <c r="W27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27">
+        <v>15</v>
+      </c>
+      <c r="Y27">
+        <v>10</v>
+      </c>
+      <c r="Z27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -2275,7 +2983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2288,8 +2996,17 @@
       <c r="W29">
         <v>6147.75</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29">
+        <v>6250.25</v>
+      </c>
+      <c r="Y29">
+        <v>6452.75</v>
+      </c>
+      <c r="Z29">
+        <v>6484.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2302,8 +3019,17 @@
       <c r="W30">
         <v>1859.73</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30">
+        <v>1984.05</v>
+      </c>
+      <c r="Y30">
+        <v>1985.7</v>
+      </c>
+      <c r="Z30">
+        <v>2006.39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2311,7 +3037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2324,8 +3050,17 @@
       <c r="W32">
         <v>299.79000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X32">
+        <v>300.77999999999997</v>
+      </c>
+      <c r="Y32">
+        <v>304.18</v>
+      </c>
+      <c r="Z32">
+        <v>307.95999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2338,8 +3073,17 @@
       <c r="W33">
         <v>2.58</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X33">
+        <v>4.3</v>
+      </c>
+      <c r="Y33">
+        <v>0.86</v>
+      </c>
+      <c r="Z33">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2352,8 +3096,17 @@
       <c r="W34">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X34">
+        <v>2</v>
+      </c>
+      <c r="Y34">
+        <v>0.5</v>
+      </c>
+      <c r="Z34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2361,7 +3114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2369,7 +3122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2382,8 +3135,17 @@
       <c r="W37">
         <v>6322.95</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X37">
+        <v>6476.45</v>
+      </c>
+      <c r="Y37">
+        <v>6713.8</v>
+      </c>
+      <c r="Z37">
+        <v>6694.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2396,8 +3158,17 @@
       <c r="W38">
         <v>4.29</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X38">
+        <v>8.58</v>
+      </c>
+      <c r="Y38">
+        <v>15.73</v>
+      </c>
+      <c r="Z38">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2410,8 +3181,17 @@
       <c r="W39">
         <v>4.9800000000000004</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X39">
+        <v>8.39</v>
+      </c>
+      <c r="Y39">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="Z39">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2422,7 +3202,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2430,7 +3210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2438,7 +3218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2451,8 +3231,17 @@
       <c r="W43">
         <v>341.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X43">
+        <v>325.8</v>
+      </c>
+      <c r="Y43">
+        <v>337.3</v>
+      </c>
+      <c r="Z43">
+        <v>285.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2465,8 +3254,17 @@
       <c r="W44">
         <v>275.02</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X44">
+        <v>232.33</v>
+      </c>
+      <c r="Y44">
+        <v>234.14</v>
+      </c>
+      <c r="Z44">
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2479,8 +3277,17 @@
       <c r="W45">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X45">
+        <v>47.54</v>
+      </c>
+      <c r="Y45">
+        <v>84.64</v>
+      </c>
+      <c r="Z45">
+        <v>71.31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2493,8 +3300,17 @@
       <c r="W46">
         <v>1453.74</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X46">
+        <v>1537.69</v>
+      </c>
+      <c r="Y46">
+        <v>1643.73</v>
+      </c>
+      <c r="Z46">
+        <v>1607.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -2507,8 +3323,17 @@
       <c r="W47">
         <v>155.47999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47">
+        <v>161.46</v>
+      </c>
+      <c r="Y47">
+        <v>164.45</v>
+      </c>
+      <c r="Z47">
+        <v>170.43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2521,8 +3346,17 @@
       <c r="W48">
         <v>160.12</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48">
+        <v>178.34</v>
+      </c>
+      <c r="Y48">
+        <v>186.68</v>
+      </c>
+      <c r="Z48">
+        <v>195.68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -2532,8 +3366,17 @@
       <c r="W49">
         <v>92.69</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X49">
+        <v>107.64</v>
+      </c>
+      <c r="Y49">
+        <v>68.77</v>
+      </c>
+      <c r="Z49">
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -2546,8 +3389,17 @@
       <c r="W50">
         <v>33.25</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X50">
+        <v>38</v>
+      </c>
+      <c r="Y50">
+        <v>28.5</v>
+      </c>
+      <c r="Z50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -2557,8 +3409,17 @@
       <c r="W51">
         <v>11.96</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X51">
+        <v>11.96</v>
+      </c>
+      <c r="Y51">
+        <v>32.89</v>
+      </c>
+      <c r="Z51">
+        <v>23.92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -2566,7 +3427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -2579,8 +3440,17 @@
       <c r="W53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2588,7 +3458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2596,7 +3466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -2604,7 +3474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2617,8 +3487,17 @@
       <c r="W57">
         <v>11088.73</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X57">
+        <v>11425.31</v>
+      </c>
+      <c r="Y57">
+        <v>11806.85</v>
+      </c>
+      <c r="Z57">
+        <v>11673.61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -2631,8 +3510,17 @@
       <c r="W58">
         <v>218.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X58">
+        <v>231.8</v>
+      </c>
+      <c r="Y58">
+        <v>228.95</v>
+      </c>
+      <c r="Z58">
+        <v>223.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -2642,8 +3530,14 @@
       <c r="V59">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y59">
+        <v>5.72</v>
+      </c>
+      <c r="Z59">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -2656,8 +3550,17 @@
       <c r="W60">
         <v>3.32</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X60">
+        <v>3.32</v>
+      </c>
+      <c r="Y60">
+        <v>3.32</v>
+      </c>
+      <c r="Z60">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -2670,8 +3573,17 @@
       <c r="W61">
         <v>319.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X61">
+        <v>311.60000000000002</v>
+      </c>
+      <c r="Y61">
+        <v>321.10000000000002</v>
+      </c>
+      <c r="Z61">
+        <v>277.39999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -2684,8 +3596,17 @@
       <c r="W62">
         <v>389.48</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X62">
+        <v>295.32</v>
+      </c>
+      <c r="Y62">
+        <v>374.5</v>
+      </c>
+      <c r="Z62">
+        <v>344.54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -2698,8 +3619,17 @@
       <c r="W63">
         <v>146.16</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X63">
+        <v>78.3</v>
+      </c>
+      <c r="Y63">
+        <v>107.01</v>
+      </c>
+      <c r="Z63">
+        <v>91.35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -2712,8 +3642,17 @@
       <c r="W64">
         <v>1672.56</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X64">
+        <v>1733.16</v>
+      </c>
+      <c r="Y64">
+        <v>1628.12</v>
+      </c>
+      <c r="Z64">
+        <v>1668.52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -2726,8 +3665,17 @@
       <c r="W65">
         <v>816.27</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X65">
+        <v>822.25</v>
+      </c>
+      <c r="Y65">
+        <v>813.28</v>
+      </c>
+      <c r="Z65">
+        <v>822.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -2740,8 +3688,17 @@
       <c r="W66">
         <v>154.08000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X66">
+        <v>265.36</v>
+      </c>
+      <c r="Y66">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="Z66">
+        <v>235.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -2754,8 +3711,17 @@
       <c r="W67">
         <v>149.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X67">
+        <v>245.18</v>
+      </c>
+      <c r="Y67">
+        <v>176.41</v>
+      </c>
+      <c r="Z67">
+        <v>254.15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -2765,8 +3731,17 @@
       <c r="W68">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X68">
+        <v>42.75</v>
+      </c>
+      <c r="Y68">
+        <v>71.25</v>
+      </c>
+      <c r="Z68">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -2779,8 +3754,17 @@
       <c r="W69">
         <v>38.869999999999997</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X69">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="Y69">
+        <v>47.84</v>
+      </c>
+      <c r="Z69">
+        <v>38.869999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -2793,8 +3777,17 @@
       <c r="W70">
         <v>3945.94</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X70">
+        <v>4064.92</v>
+      </c>
+      <c r="Y70">
+        <v>3927.3</v>
+      </c>
+      <c r="Z70">
+        <v>3988.98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -2807,8 +3800,17 @@
       <c r="W71">
         <v>21182.42</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X71">
+        <v>25027.79</v>
+      </c>
+      <c r="Y71">
+        <v>22186.9</v>
+      </c>
+      <c r="Z71">
+        <v>22147.09</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -2821,8 +3823,17 @@
       <c r="W72">
         <v>1859.73</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X72">
+        <v>1984.05</v>
+      </c>
+      <c r="Y72">
+        <v>1985.7</v>
+      </c>
+      <c r="Z72">
+        <v>2006.39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -2830,7 +3841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -2843,8 +3854,17 @@
       <c r="W74">
         <v>299.79000000000002</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X74">
+        <v>300.77999999999997</v>
+      </c>
+      <c r="Y74">
+        <v>304.18</v>
+      </c>
+      <c r="Z74">
+        <v>307.95999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -2857,8 +3877,17 @@
       <c r="W75">
         <v>11880.62</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X75">
+        <v>12081.84</v>
+      </c>
+      <c r="Y75">
+        <v>12641.61</v>
+      </c>
+      <c r="Z75">
+        <v>12520.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -2871,8 +3900,17 @@
       <c r="W76">
         <v>7142.28</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X76">
+        <v>7373.81</v>
+      </c>
+      <c r="Y76">
+        <v>7255.41</v>
+      </c>
+      <c r="Z76">
+        <v>7312.44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -2885,8 +3923,17 @@
       <c r="W77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -2898,6 +3945,15 @@
       </c>
       <c r="W78">
         <v>21182.42</v>
+      </c>
+      <c r="X78">
+        <v>21740.48</v>
+      </c>
+      <c r="Y78">
+        <v>22186.9</v>
+      </c>
+      <c r="Z78">
+        <v>22147.09</v>
       </c>
     </row>
   </sheetData>
@@ -2907,44 +3963,62 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7735052A-B575-478B-B7E7-3DE664044E9A}">
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:Z78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44075</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="V5" s="2">
         <v>44094</v>
       </c>
       <c r="W5" s="2">
         <v>44095</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="2">
+        <v>44096</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>44097</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="V6" t="s">
         <v>38</v>
       </c>
       <c r="W6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2952,7 +4026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2960,7 +4034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2968,7 +4042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2976,7 +4050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2984,7 +4058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2992,7 +4066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -3000,7 +4074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -3008,7 +4082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3016,7 +4090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3024,7 +4098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -3037,8 +4111,17 @@
       <c r="W17">
         <v>5256</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17">
+        <v>5264</v>
+      </c>
+      <c r="Y17">
+        <v>5551</v>
+      </c>
+      <c r="Z17">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3051,8 +4134,17 @@
       <c r="W18">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18">
+        <v>53</v>
+      </c>
+      <c r="Y18">
+        <v>72</v>
+      </c>
+      <c r="Z18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -3065,8 +4157,17 @@
       <c r="W19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
+      </c>
+      <c r="Z19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3079,8 +4180,17 @@
       <c r="W20">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20">
+        <v>119</v>
+      </c>
+      <c r="Y20">
+        <v>100</v>
+      </c>
+      <c r="Z20">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3093,8 +4203,17 @@
       <c r="W21">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21">
+        <v>44</v>
+      </c>
+      <c r="Y21">
+        <v>28</v>
+      </c>
+      <c r="Z21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3107,8 +4226,17 @@
       <c r="W22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22">
+        <v>8</v>
+      </c>
+      <c r="Y22">
+        <v>10</v>
+      </c>
+      <c r="Z22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3121,8 +4249,17 @@
       <c r="W23">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23">
+        <v>115</v>
+      </c>
+      <c r="Y23">
+        <v>96</v>
+      </c>
+      <c r="Z23">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -3130,7 +4267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3140,8 +4277,17 @@
       <c r="W25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25">
+        <v>9</v>
+      </c>
+      <c r="Y25">
+        <v>17</v>
+      </c>
+      <c r="Z25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3149,7 +4295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3159,8 +4305,17 @@
       <c r="W27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>2</v>
+      </c>
+      <c r="Z27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3168,7 +4323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3181,8 +4336,17 @@
       <c r="W29">
         <v>5576</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29">
+        <v>5617</v>
+      </c>
+      <c r="Y29">
+        <v>5881</v>
+      </c>
+      <c r="Z29">
+        <v>5846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -3195,8 +4359,17 @@
       <c r="W30">
         <v>6641</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30">
+        <v>7085</v>
+      </c>
+      <c r="Y30">
+        <v>7090</v>
+      </c>
+      <c r="Z30">
+        <v>7163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -3204,7 +4377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -3217,8 +4390,17 @@
       <c r="W32">
         <v>3331</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X32">
+        <v>3342</v>
+      </c>
+      <c r="Y32">
+        <v>3377</v>
+      </c>
+      <c r="Z32">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -3231,8 +4413,17 @@
       <c r="W33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X33">
+        <v>5</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -3245,8 +4436,17 @@
       <c r="W34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X34">
+        <v>4</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -3254,7 +4454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -3262,7 +4462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -3275,8 +4475,17 @@
       <c r="W37">
         <v>6631</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X37">
+        <v>6795</v>
+      </c>
+      <c r="Y37">
+        <v>7044</v>
+      </c>
+      <c r="Z37">
+        <v>7024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -3289,8 +4498,17 @@
       <c r="W38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X38">
+        <v>6</v>
+      </c>
+      <c r="Y38">
+        <v>11</v>
+      </c>
+      <c r="Z38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -3303,8 +4521,17 @@
       <c r="W39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X39">
+        <v>5</v>
+      </c>
+      <c r="Y39">
+        <v>3</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -3315,7 +4542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -3323,7 +4550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -3331,7 +4558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -3344,8 +4571,17 @@
       <c r="W43">
         <v>179</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X43">
+        <v>171</v>
+      </c>
+      <c r="Y43">
+        <v>177</v>
+      </c>
+      <c r="Z43">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -3358,8 +4594,17 @@
       <c r="W44">
         <v>128</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X44">
+        <v>108</v>
+      </c>
+      <c r="Y44">
+        <v>109</v>
+      </c>
+      <c r="Z44">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -3372,8 +4617,17 @@
       <c r="W45">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X45">
+        <v>18</v>
+      </c>
+      <c r="Y45">
+        <v>32</v>
+      </c>
+      <c r="Z45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -3386,8 +4640,17 @@
       <c r="W46">
         <v>351</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X46">
+        <v>371</v>
+      </c>
+      <c r="Y46">
+        <v>396</v>
+      </c>
+      <c r="Z46">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -3400,8 +4663,17 @@
       <c r="W47">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47">
+        <v>54</v>
+      </c>
+      <c r="Y47">
+        <v>55</v>
+      </c>
+      <c r="Z47">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -3414,8 +4686,17 @@
       <c r="W48">
         <v>37</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48">
+        <v>41</v>
+      </c>
+      <c r="Y48">
+        <v>43</v>
+      </c>
+      <c r="Z48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3425,8 +4706,17 @@
       <c r="W49">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X49">
+        <v>36</v>
+      </c>
+      <c r="Y49">
+        <v>23</v>
+      </c>
+      <c r="Z49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3439,8 +4729,17 @@
       <c r="W50">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X50">
+        <v>8</v>
+      </c>
+      <c r="Y50">
+        <v>6</v>
+      </c>
+      <c r="Z50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3450,8 +4749,17 @@
       <c r="W51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X51">
+        <v>4</v>
+      </c>
+      <c r="Y51">
+        <v>11</v>
+      </c>
+      <c r="Z51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3459,7 +4767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3472,8 +4780,17 @@
       <c r="W53">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X53">
+        <v>52</v>
+      </c>
+      <c r="Y53">
+        <v>52</v>
+      </c>
+      <c r="Z53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3481,7 +4798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -3489,7 +4806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3497,7 +4814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3510,8 +4827,17 @@
       <c r="W57">
         <v>17486</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X57">
+        <v>18105</v>
+      </c>
+      <c r="Y57">
+        <v>18431</v>
+      </c>
+      <c r="Z57">
+        <v>18471</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -3524,8 +4850,17 @@
       <c r="W58">
         <v>230</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X58">
+        <v>244</v>
+      </c>
+      <c r="Y58">
+        <v>241</v>
+      </c>
+      <c r="Z58">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -3535,8 +4870,14 @@
       <c r="V59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y59">
+        <v>4</v>
+      </c>
+      <c r="Z59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -3549,8 +4890,17 @@
       <c r="W60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X60">
+        <v>2</v>
+      </c>
+      <c r="Y60">
+        <v>2</v>
+      </c>
+      <c r="Z60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -3563,8 +4913,17 @@
       <c r="W61">
         <v>168</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X61">
+        <v>164</v>
+      </c>
+      <c r="Y61">
+        <v>169</v>
+      </c>
+      <c r="Z61">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -3577,8 +4936,17 @@
       <c r="W62">
         <v>182</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X62">
+        <v>138</v>
+      </c>
+      <c r="Y62">
+        <v>175</v>
+      </c>
+      <c r="Z62">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -3591,8 +4959,17 @@
       <c r="W63">
         <v>56</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X63">
+        <v>30</v>
+      </c>
+      <c r="Y63">
+        <v>41</v>
+      </c>
+      <c r="Z63">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -3605,8 +4982,17 @@
       <c r="W64">
         <v>414</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X64">
+        <v>429</v>
+      </c>
+      <c r="Y64">
+        <v>403</v>
+      </c>
+      <c r="Z64">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -3619,8 +5005,17 @@
       <c r="W65">
         <v>273</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X65">
+        <v>275</v>
+      </c>
+      <c r="Y65">
+        <v>272</v>
+      </c>
+      <c r="Z65">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -3633,8 +5028,17 @@
       <c r="W66">
         <v>36</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X66">
+        <v>62</v>
+      </c>
+      <c r="Y66">
+        <v>35</v>
+      </c>
+      <c r="Z66">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -3647,8 +5051,17 @@
       <c r="W67">
         <v>50</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X67">
+        <v>82</v>
+      </c>
+      <c r="Y67">
+        <v>59</v>
+      </c>
+      <c r="Z67">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -3658,8 +5071,17 @@
       <c r="W68">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X68">
+        <v>9</v>
+      </c>
+      <c r="Y68">
+        <v>15</v>
+      </c>
+      <c r="Z68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -3672,8 +5094,17 @@
       <c r="W69">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X69">
+        <v>12</v>
+      </c>
+      <c r="Y69">
+        <v>16</v>
+      </c>
+      <c r="Z69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -3686,8 +5117,17 @@
       <c r="W70">
         <v>1432</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X70">
+        <v>1447</v>
+      </c>
+      <c r="Y70">
+        <v>1432</v>
+      </c>
+      <c r="Z70">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -3700,8 +5140,17 @@
       <c r="W71">
         <v>24494</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X71">
+        <v>29958</v>
+      </c>
+      <c r="Y71">
+        <v>25744</v>
+      </c>
+      <c r="Z71">
+        <v>25746</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -3714,8 +5163,17 @@
       <c r="W72">
         <v>6641</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X72">
+        <v>7085</v>
+      </c>
+      <c r="Y72">
+        <v>7090</v>
+      </c>
+      <c r="Z72">
+        <v>7163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -3723,7 +5181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -3736,8 +5194,17 @@
       <c r="W74">
         <v>3331</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X74">
+        <v>3342</v>
+      </c>
+      <c r="Y74">
+        <v>3377</v>
+      </c>
+      <c r="Z74">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -3750,8 +5217,17 @@
       <c r="W75">
         <v>12175</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X75">
+        <v>12380</v>
+      </c>
+      <c r="Y75">
+        <v>12935</v>
+      </c>
+      <c r="Z75">
+        <v>12822</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -3764,8 +5240,17 @@
       <c r="W76">
         <v>2292</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X76">
+        <v>2310</v>
+      </c>
+      <c r="Y76">
+        <v>2290</v>
+      </c>
+      <c r="Z76">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -3778,8 +5263,17 @@
       <c r="W77">
         <v>55</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X77">
+        <v>52</v>
+      </c>
+      <c r="Y77">
+        <v>52</v>
+      </c>
+      <c r="Z77">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -3791,6 +5285,15 @@
       </c>
       <c r="W78">
         <v>24494</v>
+      </c>
+      <c r="X78">
+        <v>25169</v>
+      </c>
+      <c r="Y78">
+        <v>25744</v>
+      </c>
+      <c r="Z78">
+        <v>25746</v>
       </c>
     </row>
   </sheetData>

--- a/localfile/N1_89_Traffic Count and Revenue.xlsx
+++ b/localfile/N1_89_Traffic Count and Revenue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\NYSThruway\localfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD961252-2D85-4FFF-840E-991A253ED9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2DB35D-AC19-4FB0-9ECA-26871B26D66F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{C1DDA0D8-EFDF-499B-84A9-CEFA65739E8A}"/>
   </bookViews>

--- a/localfile/N1_89_Traffic Count and Revenue.xlsx
+++ b/localfile/N1_89_Traffic Count and Revenue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\NYSThruway\localfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2DB35D-AC19-4FB0-9ECA-26871B26D66F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D29904C-F8F2-4447-ACEC-578094C4E868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{C1DDA0D8-EFDF-499B-84A9-CEFA65739E8A}"/>
   </bookViews>
